--- a/data/new_posteriors/no_elementary_skills/complex_model/noleak/unconstrained/results_model2a_noleak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/complex_model/noleak/unconstrained/results_model2a_noleak_unconstrained.xlsx
@@ -622,28 +622,28 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9883554131416555</v>
+        <v>0.8103017546583042</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.6893814482091862</v>
+        <v>0.5864253332150052</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9469107678221125</v>
+        <v>0.7040905711287745</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.999416333065832</v>
+        <v>0.3251095747494708</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7612554792181757</v>
+        <v>0.6302294883596192</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.8567754086721354</v>
+        <v>0.3314800633944873</v>
       </c>
       <c r="M3" t="n" s="25">
         <v>1.0</v>
@@ -657,28 +657,28 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.8606706873200071</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.986613693064331</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.6791237307150454</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9979150679699839</v>
+        <v>0.9384128659388883</v>
       </c>
       <c r="M4" t="n" s="25">
         <v>1.0</v>
@@ -692,28 +692,28 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.7599366399685961</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9998424273350683</v>
+        <v>0.9815264843019932</v>
       </c>
       <c r="M5" t="n" s="25">
         <v>1.0</v>
@@ -727,28 +727,28 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.7873397847042762</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.988220062521156</v>
       </c>
       <c r="M6" t="n" s="25">
         <v>1.0</v>
@@ -762,28 +762,28 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9367129604061545</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.7500717068532461</v>
+        <v>0.6219313296702622</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.991751800563428</v>
+        <v>0.9017804853426721</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.99999976324172</v>
+        <v>0.9916482145766902</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.915769838259126</v>
+        <v>0.7517973848419905</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9995099155086666</v>
+        <v>0.9527836524105534</v>
       </c>
       <c r="M7" t="n" s="25">
         <v>1.0</v>
@@ -797,28 +797,28 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9999917385586414</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9986381295537436</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9697745336480498</v>
+        <v>0.9966292191938453</v>
       </c>
       <c r="M8" t="n" s="25">
         <v>0.9416196707782097</v>
@@ -832,28 +832,28 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.828036249977653</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999894356977937</v>
+        <v>0.9941493754088837</v>
       </c>
       <c r="M9" t="n" s="25">
         <v>1.0</v>
@@ -867,28 +867,28 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.6072316237879122</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9877312527342245</v>
+        <v>0.8809632643395306</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999999083466489</v>
+        <v>0.9959975985263773</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9037469453370062</v>
+        <v>0.7340370274037328</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9996422998855319</v>
+        <v>0.9709412398950575</v>
       </c>
       <c r="M10" t="n" s="25">
         <v>1.0</v>
@@ -902,28 +902,28 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9910420422372933</v>
+        <v>0.8953182503808721</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.99998712296692</v>
+        <v>0.9218053458902452</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9451462410060893</v>
+        <v>0.7783148240831858</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.999046722020628</v>
+        <v>0.7885396785171854</v>
       </c>
       <c r="M11" t="n" s="25">
         <v>1.0</v>
@@ -937,28 +937,28 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.828036249977653</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999894356977937</v>
+        <v>0.9941493754088837</v>
       </c>
       <c r="M12" t="n" s="25">
         <v>1.0</v>
@@ -972,28 +972,28 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.4411193496190816</v>
+        <v>0.2416397524215664</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.7497457157780186</v>
+        <v>0.6218669318609917</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9647685799895255</v>
+        <v>0.6759409416184428</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.13881108340784376</v>
+        <v>0.004925531543329719</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9815351922985185</v>
+        <v>0.8415800914258743</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9996127726336969</v>
+        <v>0.49748418723894733</v>
       </c>
       <c r="M13" t="n" s="25">
         <v>1.0</v>
@@ -1007,28 +1007,28 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.87689324918373</v>
+        <v>0.968723956267849</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.891424205827071</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9998990662225019</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.358028192506613</v>
+        <v>0.9999999984591345</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.8418325169226019</v>
+        <v>0.9417601060579158</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.29780230433941896</v>
+        <v>0.999980754490001</v>
       </c>
       <c r="M14" t="n" s="25">
         <v>3.309500630556789E-7</v>
@@ -1042,28 +1042,28 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9926171230093359</v>
+        <v>0.9102158605702947</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.8606706873200071</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.9717912241854417</v>
+        <v>0.04905754090815348</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.6791237307150454</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.868354302384519</v>
+        <v>0.1735448928459316</v>
       </c>
       <c r="M15" t="n" s="25">
         <v>1.0</v>
@@ -1077,28 +1077,28 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9696804031741598</v>
+        <v>0.9981429769382071</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.891424205827071</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9998990662225019</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.999998560334735</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9710656967085763</v>
+        <v>0.9981763587030253</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999885044524128</v>
+        <v>1.0</v>
       </c>
       <c r="M16" t="n" s="25">
         <v>0.9998296764561015</v>
@@ -1112,28 +1112,28 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.7302888589808976</v>
+        <v>0.6101334396679535</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9882923254948467</v>
+        <v>0.88555525193654</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999999311797443</v>
+        <v>0.9968652304039248</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.8989287692497147</v>
+        <v>0.7233971833621443</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9995923653609624</v>
+        <v>0.9670759140743441</v>
       </c>
       <c r="M17" t="n" s="25">
         <v>1.0</v>
@@ -1147,28 +1147,28 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.9999330491576957</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9698714750294763</v>
+        <v>0.8318446018124713</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.999992503127245</v>
+        <v>0.9949055920954877</v>
       </c>
       <c r="M18" t="n" s="25">
         <v>1.0</v>
@@ -1182,28 +1182,28 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.7873397847042762</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.988220062521156</v>
       </c>
       <c r="M19" t="n" s="25">
         <v>1.0</v>
@@ -1217,28 +1217,28 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.7599366399685961</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9998424273350683</v>
+        <v>0.9815264843019932</v>
       </c>
       <c r="M20" t="n" s="25">
         <v>1.0</v>
@@ -1252,28 +1252,28 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.9999330491576957</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9806757238252186</v>
+        <v>0.8591777822061267</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999980589773848</v>
+        <v>0.9971448978997351</v>
       </c>
       <c r="M21" t="n" s="25">
         <v>1.0</v>
@@ -1287,28 +1287,28 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.7960931133134392</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.999959198170099</v>
+        <v>0.989585168749026</v>
       </c>
       <c r="M22" t="n" s="25">
         <v>1.0</v>
@@ -1322,28 +1322,28 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.9999330491576957</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.953314116673262</v>
+        <v>0.8004383932398441</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999710450528005</v>
+        <v>0.9909259427754412</v>
       </c>
       <c r="M23" t="n" s="25">
         <v>1.0</v>
@@ -1357,28 +1357,28 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.7960931133134392</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.999959198170099</v>
+        <v>0.989585168749026</v>
       </c>
       <c r="M24" t="n" s="25">
         <v>1.0</v>
@@ -1392,28 +1392,28 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9367129604061545</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999999748650942</v>
+        <v>0.9981356013670994</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.7599366399685961</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.9996499059465723</v>
+        <v>0.9598541848717397</v>
       </c>
       <c r="M25" t="n" s="25">
         <v>1.0</v>
@@ -1427,28 +1427,28 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.29613022584272053</v>
+        <v>0.06400731167196161</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.20011406013647576</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>0.19692565483932462</v>
+        <v>3.296707057661963E-4</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7638371923193016</v>
+        <v>0.6193850153190212</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>0.024384285222313583</v>
+        <v>0.0016463745228685244</v>
       </c>
       <c r="M26" t="n" s="25">
         <v>1.0</v>
@@ -1462,28 +1462,28 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.6368890950257642</v>
+        <v>0.8388812813692985</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.7738750602538691</v>
+        <v>0.8737029489713185</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9869651998167616</v>
+        <v>0.9995155823943404</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.008484590129866956</v>
+        <v>0.9992751663418007</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8834945618414937</v>
+        <v>0.9708618069716074</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.22120227602058087</v>
+        <v>0.9999999929349396</v>
       </c>
       <c r="M27" t="n" s="25">
         <v>1.834558482560289E-8</v>
@@ -1497,28 +1497,28 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9367129604061545</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.7309730452741708</v>
+        <v>0.61026372276391</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9880083453771463</v>
+        <v>0.8835808230199454</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999977698590251</v>
+        <v>0.9634146346370399</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9086547221365476</v>
+        <v>0.743475324075011</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9993139861772815</v>
+        <v>0.9445398002474933</v>
       </c>
       <c r="M28" t="n" s="25">
         <v>1.0</v>
@@ -1532,28 +1532,28 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.5713637900265816</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9632611255839563</v>
+        <v>0.8084717228962365</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9999456431867668</v>
+        <v>0.7837968248474071</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7219382800213777</v>
+        <v>0.5855564705600844</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9816181843643321</v>
+        <v>0.824714628569239</v>
       </c>
       <c r="M29" t="n" s="25">
         <v>1.0</v>
@@ -1567,28 +1567,28 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.1011494385122465</v>
+        <v>0.4063047266162917</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.7501839040609405</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.20644951096542996</v>
+        <v>0.6810040277641899</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>3.906956709605742E-6</v>
+        <v>0.9993537665000046</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.7190173285684758</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>5.3277235272825715E-5</v>
+        <v>3.2360396338292026E-4</v>
       </c>
       <c r="M30" t="n" s="25">
         <v>1.8057190847614848E-13</v>
@@ -1602,28 +1602,28 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9659014641828572</v>
+        <v>0.8203447252789162</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999885174615989</v>
+        <v>0.9933785118113793</v>
       </c>
       <c r="M31" t="n" s="25">
         <v>1.0</v>
@@ -1637,28 +1637,28 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.02750885747928962</v>
+        <v>0.10799464076421215</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.7501839040609405</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.11510660682686291</v>
+        <v>0.5163048577091789</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>4.7316906154208714E-7</v>
+        <v>0.9924392221158539</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.7190173285684758</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.2605463188187534E-5</v>
+        <v>1.373261230766311E-4</v>
       </c>
       <c r="M32" t="n" s="25">
         <v>3.966340956757556E-14</v>
@@ -1672,28 +1672,28 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.024421178510121423</v>
+        <v>0.026397548671009668</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>4.7819516732012493E-4</v>
+        <v>7.377596077338097E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>1.2876862384361813E-5</v>
+        <v>2.869460790303803E-5</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.0027568802536832807</v>
+        <v>0.004487130640794726</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>4.336038277659511E-5</v>
+        <v>4.4751831347032803E-4</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>2.4809094450194917E-10</v>
+        <v>1.5144005618039126E-5</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>1.2264683613412967E-4</v>
+        <v>2.8328101023154795E-4</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>4.954567889065311E-10</v>
+        <v>1.800014079563115E-5</v>
       </c>
       <c r="M33" t="n" s="25">
         <v>1.2672655267941095E-18</v>
@@ -1707,28 +1707,28 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>1.2938718099686379E-5</v>
+        <v>0.5011337336035527</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>8.31272974653041E-4</v>
+        <v>0.9746823368703921</v>
       </c>
       <c r="M34" t="n" s="25">
         <v>2.1279757083723755E-12</v>
@@ -1742,28 +1742,28 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.002935976608536877</v>
+        <v>0.0031085188998866056</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>2.8086353577806595E-5</v>
+        <v>4.052925309320456E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>6.319107595703942E-7</v>
+        <v>1.897893149768091E-6</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>3.878972804261066E-5</v>
+        <v>5.8354945567510397E-5</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>6.443590889524473E-9</v>
+        <v>3.9876896398527116E-8</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>7.163893828500266E-15</v>
+        <v>1.6897664805509292E-10</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>2.0248868330069045E-7</v>
+        <v>2.8589320764412505E-7</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>8.043943187358349E-15</v>
+        <v>3.684937283240068E-14</v>
       </c>
       <c r="M35" t="n" s="25">
         <v>1.2433714955852805E-23</v>
@@ -1777,28 +1777,28 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>0.28664068277992705</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>8.924480926603372E-4</v>
       </c>
       <c r="M36" t="n" s="25">
         <v>1.11568022785359E-13</v>
@@ -1812,28 +1812,28 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>1.2938718099686379E-5</v>
+        <v>0.5011337336035527</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>8.31272974653041E-4</v>
+        <v>0.9746823368703921</v>
       </c>
       <c r="M37" t="n" s="25">
         <v>2.1279757083723755E-12</v>
@@ -1847,28 +1847,28 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.39648122107635425</v>
+        <v>0.8415434595618633</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.7365254207492108</v>
+        <v>0.8342335663595633</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.8806137339906287</v>
+        <v>0.991989773592222</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.7636137188804599</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9013303209989715</v>
+        <v>0.9816796965459725</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.7995215462381082</v>
+        <v>0.9999999999998331</v>
       </c>
       <c r="M38" t="n" s="25">
         <v>6.174988617477205E-5</v>
@@ -1882,28 +1882,28 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>1.2938718099686382E-5</v>
+        <v>0.5011337336035527</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>8.312729746530416E-4</v>
+        <v>0.9746823368703921</v>
       </c>
       <c r="M39" t="n" s="25">
         <v>2.1279757083723755E-12</v>
@@ -1917,28 +1917,28 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.037235169242020826</v>
+        <v>0.10298262411997285</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6872852445581443</v>
+        <v>0.7794449127756825</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.2786431742007914</v>
+        <v>0.8021067019328524</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>5.525060087142682E-7</v>
+        <v>0.03313957836259119</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.7589551846169142</v>
+        <v>0.8792742000965216</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>2.534326775324425E-4</v>
+        <v>0.9091852865414447</v>
       </c>
       <c r="M40" t="n" s="25">
         <v>2.5935493657705205E-13</v>
@@ -1952,28 +1952,28 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9852952486831877</v>
+        <v>0.799251493869692</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.8474060799722833</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999998120782364</v>
+        <v>0.9947969631078489</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.828036249977653</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999679876496359</v>
+        <v>0.9824789589737041</v>
       </c>
       <c r="M41" t="n" s="25">
         <v>1.0</v>
@@ -1987,28 +1987,28 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.07717555337529731</v>
+        <v>0.12683064474435451</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.006725778953112904</v>
+        <v>0.03531280030792754</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.07622870617237251</v>
+        <v>0.1240027698181478</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>8.248694009514753E-5</v>
+        <v>6.582309580977436E-4</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>2.2635511374478435E-10</v>
+        <v>1.2256230139775351E-5</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>0.0013851833080343286</v>
+        <v>0.002225571424805995</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>6.960697248422058E-10</v>
+        <v>4.230695604623914E-9</v>
       </c>
       <c r="M42" t="n" s="25">
         <v>2.506497550619604E-18</v>
@@ -2022,28 +2022,28 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.76664393192103</v>
+        <v>0.8652906045811326</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.16422971940794562</v>
+        <v>0.356826494300321</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.7365254207492108</v>
+        <v>0.8342335663595633</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.8330511839473467</v>
+        <v>0.9850037144391672</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>5.7094268787240836E-5</v>
+        <v>0.8162950453112059</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.7930472218802036</v>
+        <v>0.9066297601607232</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>3.003886138607541E-4</v>
+        <v>0.0041842541555355255</v>
       </c>
       <c r="M43" t="n" s="25">
         <v>1.3973753927085186E-12</v>
@@ -2057,28 +2057,28 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.1225675643728686</v>
+        <v>0.37416845080771777</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.6785572497078578E-4</v>
+        <v>0.9999865828607654</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>0.002371404684702593</v>
+        <v>0.990990554129541</v>
       </c>
       <c r="M44" t="n" s="25">
         <v>5.792567521272705E-11</v>
@@ -2092,28 +2092,28 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.21645554691704746</v>
+        <v>0.4505615407156817</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.7302888589808976</v>
+        <v>0.829132426487467</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.8952542142400708</v>
+        <v>0.9930355402159703</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>1.0865484187674836E-4</v>
+        <v>0.9146599862303124</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.7920557543657959</v>
+        <v>0.9058312449847294</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>0.0024928953526777123</v>
+        <v>0.9929028937050064</v>
       </c>
       <c r="M45" t="n" s="25">
         <v>1.2784386245355958E-11</v>
@@ -2127,28 +2127,28 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.001664438663734058</v>
+        <v>0.002453058898622269</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>5.29353310850551E-8</v>
+        <v>1.120329865838767E-7</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>0.0011638190920615905</v>
+        <v>0.0014773068535021358</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>3.553147364766064E-12</v>
+        <v>7.50980571726131E-12</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>9.483806863586518E-23</v>
+        <v>3.256402963271309E-22</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>2.365932021287851E-6</v>
+        <v>2.9073929527915114E-6</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>2.2810970534621324E-18</v>
+        <v>4.193885771802019E-18</v>
       </c>
       <c r="M46" t="n" s="25">
         <v>3.8684596852103275E-31</v>
@@ -2162,28 +2162,28 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865589850016993</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.1093470846422474</v>
+        <v>0.1760829094643188</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.0023027930986504745</v>
+        <v>0.017610253843957677</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.09010202365998098</v>
+        <v>0.14083677486227816</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>2.0762338462170826E-6</v>
+        <v>9.578337675192487E-6</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.8119692419776078E-12</v>
+        <v>4.6004916015973315E-8</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>0.0013188381024481905</v>
+        <v>0.0031604826104422437</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>6.471230551814126E-11</v>
+        <v>3.682743373004731E-10</v>
       </c>
       <c r="M47" t="n" s="25">
         <v>2.7526542916517254E-19</v>
@@ -2197,28 +2197,28 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865589850016993</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.023391064741401846</v>
+        <v>0.03718563978054955</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>0.001434257111863185</v>
+        <v>0.006833141182681798</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.05740496618530353</v>
+        <v>0.0933762445906775</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>6.702939225994668E-5</v>
+        <v>4.997941737251722E-4</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>4.277408096322457E-10</v>
+        <v>1.2437883070020218E-5</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>3.3192485003846495E-4</v>
+        <v>5.229588232424868E-4</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>1.1861489474955686E-10</v>
+        <v>6.47392370446805E-10</v>
       </c>
       <c r="M48" t="n" s="25">
         <v>1.3547262982976211E-18</v>
@@ -2232,28 +2232,28 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.019203355524043297</v>
+        <v>0.05492790972440297</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.7501839040609405</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.11510660682686291</v>
+        <v>0.5163048577091789</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>3.6467361060652705E-8</v>
+        <v>0.001766058260610898</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.7190173285684758</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>7.912028371658602E-6</v>
+        <v>4.806843376039386E-5</v>
       </c>
       <c r="M49" t="n" s="25">
         <v>1.4570874099672915E-15</v>
@@ -2267,28 +2267,28 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.10862634746598841</v>
+        <v>0.17394837888162448</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>2.656120478948115E-4</v>
+        <v>6.625028634368217E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.08865470226649255</v>
+        <v>0.12293058962846012</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>4.656117883089206E-5</v>
+        <v>2.583864111626418E-4</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>3.2634671935504837E-12</v>
+        <v>1.0709275001207727E-7</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.00893126911137535</v>
+        <v>0.012263121235136747</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>5.815185752015919E-10</v>
+        <v>2.5706197963702962E-9</v>
       </c>
       <c r="M50" t="n" s="25">
         <v>4.283688840497563E-20</v>
@@ -2302,28 +2302,28 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.23400019527729374</v>
+        <v>0.25353912094880404</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>4.153522911054745E-4</v>
+        <v>5.986192692536189E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>9.70256450518494E-6</v>
+        <v>1.0631618583945781E-4</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>4.6735750479565157E-4</v>
+        <v>7.003222271056839E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>2.280003903181653E-13</v>
+        <v>4.681893842819441E-13</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.4106282948905866E-20</v>
+        <v>6.564914359703668E-19</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>2.2740442064024907E-9</v>
+        <v>3.208977651588214E-9</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>9.027232212458743E-20</v>
+        <v>1.6566143992717768E-19</v>
       </c>
       <c r="M51" t="n" s="25">
         <v>9.652631725411938E-28</v>
@@ -2337,28 +2337,28 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.08816373567665829</v>
+        <v>0.22300768534613313</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.7167824620187029</v>
+        <v>0.8117801528793532</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.6388635503946886</v>
+        <v>0.9591474278006135</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>2.8339524609520593E-6</v>
+        <v>0.18191364269038982</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.6898269026071802</v>
+        <v>0.7790100724386417</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>7.711549401943392E-5</v>
+        <v>7.131906766932363E-4</v>
       </c>
       <c r="M52" t="n" s="25">
         <v>6.455751279717745E-14</v>
@@ -2372,28 +2372,28 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9762166678529156</v>
+        <v>0.8432653317075424</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9869799854224988</v>
+        <v>0.8203681630072092</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.9986227321773392</v>
+        <v>0.32528831919072615</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8410435193201904</v>
+        <v>0.5719261358767476</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.9698050489771044</v>
+        <v>0.20210285599924868</v>
       </c>
       <c r="M53" t="n" s="25">
         <v>1.0</v>
@@ -2407,28 +2407,28 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9732701833895278</v>
+        <v>0.8215501558060858</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9999718555730771</v>
+        <v>0.913991077554889</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.953314116673262</v>
+        <v>0.800438393239844</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9994706820522055</v>
+        <v>0.8565432973101513</v>
       </c>
       <c r="M54" t="n" s="25">
         <v>1.0</v>
@@ -2442,28 +2442,28 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.7622084625251234</v>
+        <v>0.9330566746061673</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.8696265868566557</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9995792417649931</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.2753494408465166</v>
+        <v>0.9999999971085725</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.9875322251890823</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.913182584127118</v>
+        <v>0.999999999999961</v>
       </c>
       <c r="M55" t="n" s="25">
         <v>2.0063938173009573E-5</v>
@@ -2477,28 +2477,28 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.7873397847042762</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.988220062521156</v>
       </c>
       <c r="M56" t="n" s="25">
         <v>1.0</v>
@@ -2512,28 +2512,28 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.8408318765204355</v>
+        <v>0.9783360243965213</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.776057634973068</v>
+        <v>0.8750411974409998</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9889276872592941</v>
+        <v>0.9995881348171802</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9431376323292209</v>
+        <v>1.0</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.8261011383994438</v>
+        <v>0.9311413839274336</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.41605353201454526</v>
+        <v>0.9999849146679759</v>
       </c>
       <c r="M57" t="n" s="25">
         <v>1.3959628312471895E-5</v>
@@ -2547,28 +2547,28 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9999917385586414</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9986381295537436</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>1.0</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9697745336480498</v>
+        <v>0.9966292191938453</v>
       </c>
       <c r="M58" t="n" s="25">
         <v>0.9416196707782097</v>
@@ -2582,28 +2582,28 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9116013572642697</v>
+        <v>0.997331217021439</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.8273994965544357</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9354481574052199</v>
+        <v>0.9958922748918022</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9997520410366496</v>
+        <v>1.0</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.790706884034983</v>
+        <v>0.9063279690435435</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.7734584693742756</v>
+        <v>0.9999951933452613</v>
       </c>
       <c r="M59" t="n" s="25">
         <v>0.022673425502559203</v>
@@ -2617,28 +2617,28 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.8240516618492978</v>
+        <v>0.6696254307102778</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9975568596546833</v>
+        <v>0.9399077847143193</v>
       </c>
       <c r="M60" t="n" s="25">
         <v>1.0</v>
@@ -2652,28 +2652,28 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9350307038876907</v>
+        <v>0.9958826272646111</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.8696265868566557</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9995792417649931</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999413078710491</v>
+        <v>1.0</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.9875322251890823</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9976471874206724</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="M61" t="n" s="25">
         <v>0.7611576832698437</v>
@@ -2687,28 +2687,28 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9856370990033595</v>
+        <v>0.8717467740630921</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9998978496808022</v>
+        <v>0.771333974897662</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.7599366399685961</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.9968966239272117</v>
+        <v>0.7289814704776889</v>
       </c>
       <c r="M62" t="n" s="25">
         <v>1.0</v>
@@ -2722,28 +2722,28 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9737260218658</v>
+        <v>0.7531010232644694</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.8474060799722833</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9999957894590539</v>
+        <v>0.9441417834437281</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8807163509401439</v>
+        <v>0.7142696379526373</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.9891391404397969</v>
+        <v>0.6176424638313097</v>
       </c>
       <c r="M63" t="n" s="25">
         <v>1.0</v>
@@ -2757,28 +2757,28 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.6072316237879122</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9877312527342245</v>
+        <v>0.8809632643395306</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999999083466489</v>
+        <v>0.9959975985263773</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8562368823195879</v>
+        <v>0.6911458778944887</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9986198489977162</v>
+        <v>0.9491970442416511</v>
       </c>
       <c r="M64" t="n" s="25">
         <v>1.0</v>
@@ -2792,28 +2792,28 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.76664393192103</v>
+        <v>0.6381947628461256</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9638668552621725</v>
+        <v>0.7354643263058792</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9834304691893336</v>
+        <v>0.8202374741866846</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9999398259191712</v>
+        <v>0.796943113582758</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.7960931133134393</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.9892215421549115</v>
+        <v>0.41682265356754916</v>
       </c>
       <c r="M65" t="n" s="25">
         <v>1.0</v>
@@ -2827,28 +2827,28 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.6502303944682714</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.007406906157880126</v>
+        <v>0.02956354152932643</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.4420750271268031</v>
+        <v>0.5456977731750837</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.01867861886907159</v>
+        <v>0.12934221901142134</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>9.202089753570232E-8</v>
+        <v>0.9602255908950916</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.20043467298168205</v>
+        <v>0.2637592534979617</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>1.4026643044862385E-6</v>
+        <v>8.05500981790841E-6</v>
       </c>
       <c r="M66" t="n" s="25">
         <v>3.1208722709086484E-15</v>
@@ -2862,28 +2862,28 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.6178139615111987</v>
+        <v>0.7686824005287888</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.8696265868566557</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9995792417649931</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.015393821555818353</v>
+        <v>0.29742862090543876</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9644924787757004</v>
+        <v>0.997613905993874</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9866013522766154</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n" s="25">
         <v>8.391698640899542E-6</v>
@@ -2897,28 +2897,28 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.762513326156567</v>
+        <v>0.6355793881682383</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.818254097854041</v>
+        <v>0.3879258360345364</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.6189979134889825</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.9421741891189056</v>
+        <v>0.5981270302663236</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9982471786263565</v>
+        <v>0.20787033088039022</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9063301225826165</v>
+        <v>0.7240731494591498</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.8685333878120101</v>
+        <v>0.10843240558749906</v>
       </c>
       <c r="M68" t="n" s="25">
         <v>1.0</v>
@@ -2932,28 +2932,28 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865036454863967</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.1912011098121994</v>
+        <v>0.30512185854119733</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.015883079635212106</v>
+        <v>0.12038961853993649</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.10354287349520493</v>
+        <v>0.16543265851781555</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.916321065545046E-5</v>
+        <v>1.3635929990908535E-4</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>6.38061107754613E-11</v>
+        <v>8.381759934310419E-7</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>7.529181870962826E-4</v>
+        <v>0.0012008730055114067</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.4628493159416094E-10</v>
+        <v>1.8448819566727065E-9</v>
       </c>
       <c r="M69" t="n" s="25">
         <v>6.7286489769565546E-18</v>
@@ -2967,28 +2967,28 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.1677513505368545</v>
+        <v>0.5444328286711514</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>0.009021245904304538</v>
+        <v>0.9999999999569223</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.9510190085197641</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.059684989084972564</v>
+        <v>0.9999999321977261</v>
       </c>
       <c r="M70" t="n" s="25">
         <v>2.871743687547687E-8</v>
@@ -3002,28 +3002,28 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.04721610052045416</v>
+        <v>0.051207614788968764</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.0065314516906802705</v>
+        <v>0.010946683032436526</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>0.001186511651396413</v>
+        <v>0.004210069043757732</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.002516907277667225</v>
+        <v>0.004339766893815177</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>1.636572646642255E-5</v>
+        <v>1.8685125562901267E-4</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>7.442366793366062E-10</v>
+        <v>2.3187928345702483E-5</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>4.01898840026904E-4</v>
+        <v>0.0023305490442484234</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.5927090863141026E-7</v>
+        <v>0.9998742693585148</v>
       </c>
       <c r="M71" t="n" s="25">
         <v>3.103186189699796E-14</v>
@@ -3037,28 +3037,28 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.6502303944682714</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.06929552964251778</v>
+        <v>0.5401876794414486</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.4667204925914717</v>
+        <v>0.5836116426109921</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.07352915183918783</v>
+        <v>0.4393332461735665</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>0.10943527553612144</v>
+        <v>1.0</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.3016405384644046</v>
+        <v>0.4966836113957073</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>0.0016958312057637225</v>
+        <v>0.9836943532536864</v>
       </c>
       <c r="M72" t="n" s="25">
         <v>8.273102771638261E-8</v>
@@ -3072,28 +3072,28 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865640001343362</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.6501406273095378</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.054474460155229866</v>
+        <v>0.13827085148270346</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.5278950367175904</v>
+        <v>0.6680307051837784</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.11699838392154349</v>
+        <v>0.6406665920835036</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>5.198290105897199E-8</v>
+        <v>1.118902110600871E-6</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.06372411102582692</v>
+        <v>0.101741923639109</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>3.994644361572692E-7</v>
+        <v>3.6900814692830607E-6</v>
       </c>
       <c r="M73" t="n" s="25">
         <v>3.278308163205211E-16</v>
@@ -3107,28 +3107,28 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.8606706873200071</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.986613693064331</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.6318187474540011</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9919950287995265</v>
+        <v>0.8949614232243445</v>
       </c>
       <c r="M74" t="n" s="25">
         <v>1.0</v>
@@ -3142,28 +3142,28 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9075157300642339</v>
+        <v>0.6146393515155902</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.8474060799722833</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.9990430331456225</v>
+        <v>0.44546852337765136</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.7873397847042762</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.9985273371597033</v>
+        <v>0.7161252219931546</v>
       </c>
       <c r="M75" t="n" s="25">
         <v>1.0</v>
@@ -3177,28 +3177,28 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.2819481575703895</v>
+        <v>0.10961949618246701</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.6072316237879122</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.3997848061120605</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>0.001269298842472006</v>
+        <v>1.9303175138800382E-5</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8456333365794471</v>
+        <v>0.6680329966554165</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>0.03941513328371021</v>
+        <v>9.714693018061508E-4</v>
       </c>
       <c r="M76" t="n" s="25">
         <v>1.0</v>
@@ -3212,28 +3212,28 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.6501919172755444</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.00944978779647376</v>
+        <v>0.024483586589490486</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.47298974819991096</v>
+        <v>0.591169286119649</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.01123929369533353</v>
+        <v>0.0870059404653927</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>6.351846676209971E-10</v>
+        <v>8.508483044396037E-9</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.10075055307628254</v>
+        <v>0.14458276460733482</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>7.059826662897523E-8</v>
+        <v>4.4514921785994353E-7</v>
       </c>
       <c r="M77" t="n" s="25">
         <v>5.806702525103795E-18</v>
@@ -3247,28 +3247,28 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.975282518223112</v>
+        <v>0.9995054348816103</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.7501839040609405</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9129499928791819</v>
+        <v>0.9885137216246112</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.3509811623457484</v>
+        <v>0.9999999999998473</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.7190173285684758</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.20699323462925778</v>
+        <v>0.6132836401268262</v>
       </c>
       <c r="M78" t="n" s="25">
         <v>3.7153652473268013E-6</v>
@@ -3282,28 +3282,28 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865754012360804</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807174718426377</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.8191060877638168</v>
+        <v>0.9875745880477931</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.7579861428534005</v>
+        <v>0.8565672205002026</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.8920581031100651</v>
+        <v>0.993237802859414</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.8987420435231944</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.5475716312786533</v>
+        <v>0.6795232646703714</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>0.014944080244267209</v>
+        <v>0.15389622955848223</v>
       </c>
       <c r="M79" t="n" s="25">
         <v>9.566606514356686E-7</v>
@@ -3317,28 +3317,28 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5540439256333253</v>
+        <v>0.7062379691767864</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.08720842246898527</v>
+        <v>0.21071619210291684</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.5461348043400459</v>
+        <v>0.6832613074299727</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.5633308881195003</v>
+        <v>0.9534027057028513</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>1.3121450310377315E-5</v>
+        <v>0.5516436406703499</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.5095506921365772</v>
+        <v>0.7268337935317858</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>3.8596450752316697E-4</v>
+        <v>0.9573569274367832</v>
       </c>
       <c r="M80" t="n" s="25">
         <v>2.468976010252712E-12</v>
@@ -3352,28 +3352,28 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.04721610052045416</v>
+        <v>0.0435792071513586</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.005841829654150365</v>
+        <v>0.0037918248999691175</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>0.0019247397084707128</v>
+        <v>3.081264919976839E-4</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.0022752845679289593</v>
+        <v>0.0014402256906398988</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>2.7892736673130466E-5</v>
+        <v>4.541352554796169E-6</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>3.981231865910858E-5</v>
+        <v>3.8052856679961526E-8</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>0.001136866409371312</v>
+        <v>4.6588023513113364E-4</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>4.7410162847623625E-7</v>
+        <v>3.459579866959562E-8</v>
       </c>
       <c r="M81" t="n" s="25">
         <v>1.0</v>
@@ -3387,28 +3387,28 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.3740580111587647</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>8.924338892993852E-5</v>
+        <v>0.9999746182842753</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>3.875761302158121E-4</v>
+        <v>0.0035602603280239903</v>
       </c>
       <c r="M82" t="n" s="25">
         <v>5.391716325540626E-12</v>
@@ -3422,28 +3422,28 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>0.28664068277992705</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>8.924480926603372E-4</v>
       </c>
       <c r="M83" t="n" s="25">
         <v>1.11568022785359E-13</v>
@@ -3457,28 +3457,28 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9896162131698111</v>
+        <v>0.8816063903906994</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999959540432564</v>
+        <v>0.9465445627212523</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8935108271700549</v>
+        <v>0.7303273988778648</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.9878820096946975</v>
+        <v>0.5513491899325101</v>
       </c>
       <c r="M84" t="n" s="25">
         <v>1.0</v>
@@ -3492,28 +3492,28 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.8606706873200071</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.986613693064331</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.6791237307150454</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9979150679699839</v>
+        <v>0.9384128659388883</v>
       </c>
       <c r="M85" t="n" s="25">
         <v>1.0</v>
@@ -3527,28 +3527,28 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9600503803513073</v>
+        <v>0.9983596643484617</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.8489504646737042</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9830614441036224</v>
+        <v>0.9991922547151839</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9997496791510837</v>
+        <v>1.0</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8088994444607865</v>
+        <v>0.9204462574653036</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.894915858364092</v>
+        <v>0.9999985366191747</v>
       </c>
       <c r="M86" t="n" s="25">
         <v>0.021043776542850254</v>
@@ -3562,28 +3562,28 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9919109988413215</v>
+        <v>0.8271660394536785</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6863210698113151</v>
+        <v>0.5834009635116332</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9386700726798812</v>
+        <v>0.6713285906537678</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9999431940365185</v>
+        <v>0.6745638757405517</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.7552136567814124</v>
+        <v>0.6214992102136686</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.9521879369847472</v>
+        <v>0.6180270801726636</v>
       </c>
       <c r="M87" t="n" s="25">
         <v>1.0</v>
@@ -3597,28 +3597,28 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.011935698360920873</v>
+        <v>0.012807133961722839</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.295314750150061E-4</v>
+        <v>6.694714796418273E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.2200257138117469E-4</v>
+        <v>0.0015527564586372976</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>3.127604115538043E-4</v>
+        <v>5.042143817677901E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.0882479638306642E-6</v>
+        <v>2.088742004458194E-5</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>2.514788474387591E-6</v>
+        <v>1.0</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.8417973953445664E-5</v>
+        <v>2.8110225113348386E-5</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>1.8160437101889653E-9</v>
+        <v>1.3740507168447545E-8</v>
       </c>
       <c r="M88" t="n" s="25">
         <v>8.844535213742957E-14</v>
@@ -3632,28 +3632,28 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807139260468875</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.8826117108312721</v>
+        <v>0.9945102637261054</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.8489293631758537</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.860133392721247</v>
+        <v>0.9909399334971111</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9972216605186915</v>
+        <v>1.0</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.727459810487274</v>
+        <v>0.9173610990758438</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.8203029477914726</v>
+        <v>0.9999999974482364</v>
       </c>
       <c r="M89" t="n" s="25">
         <v>0.02373964357537223</v>
@@ -3667,28 +3667,28 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9561516743150207</v>
+        <v>0.7799480614183801</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.6543505108285261</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9375974002366501</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.9993477957019218</v>
+        <v>0.4944525510884216</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8894799519673542</v>
+        <v>0.7197447479653205</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.9647123044169714</v>
+        <v>0.2834011765602366</v>
       </c>
       <c r="M90" t="n" s="25">
         <v>1.0</v>
@@ -3702,28 +3702,28 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807139260468875</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.1261200301417754</v>
+        <v>0.38062717211660335</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034643219625979</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.3746407259673934</v>
+        <v>0.8678214157887024</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>2.289322764525E-6</v>
+        <v>0.10753124496993871</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4610861219752318</v>
+        <v>0.5742093440309666</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>2.6904197110731825E-5</v>
+        <v>2.1127294138962522E-4</v>
       </c>
       <c r="M91" t="n" s="25">
         <v>9.754950341449422E-14</v>
@@ -3737,28 +3737,28 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.34349798292971695</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9565748577566086</v>
+        <v>0.5367324793573587</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.49152946678865916</v>
+        <v>0.3704685400456608</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.7861822917478314</v>
+        <v>0.29853097339702994</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9996674810467393</v>
+        <v>0.28701087356580535</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.3206895938585879</v>
+        <v>0.19370931865443589</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.3078985240476975</v>
+        <v>0.031179500806058236</v>
       </c>
       <c r="M92" t="n" s="25">
         <v>1.0</v>
@@ -3772,28 +3772,28 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807139260468875</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.8063106183976667</v>
+        <v>0.967100022589458</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7760576349730679</v>
+        <v>0.875021423150071</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9685975397128094</v>
+        <v>0.9985663476881709</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.019789400858036474</v>
+        <v>0.999999818091756</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.5465557681544919</v>
+        <v>0.6926589498455241</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>0.003433453476704513</v>
+        <v>0.049159263566440216</v>
       </c>
       <c r="M93" t="n" s="25">
         <v>1.5244399321830492E-9</v>
@@ -3807,28 +3807,28 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.5953395109399954</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.8606706873200071</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.986613693064331</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.6318187474540011</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9919950287995265</v>
+        <v>0.8949614232243445</v>
       </c>
       <c r="M94" t="n" s="25">
         <v>1.0</v>
@@ -3842,28 +3842,28 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865740328784604</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807139260468875</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.7709631050587014</v>
+        <v>0.9347820901027454</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.8696062245896133</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9587483847354528</v>
+        <v>0.9980991964798804</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.0043667735406767464</v>
+        <v>0.9979029707951167</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7470500643763304</v>
+        <v>0.9282009712971607</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.0831594214156148</v>
+        <v>0.999999895965294</v>
       </c>
       <c r="M95" t="n" s="25">
         <v>2.2555551012804603E-8</v>
@@ -3877,28 +3877,28 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9937902296715562</v>
+        <v>0.9067060650771361</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.6433348195637282</v>
+        <v>0.14754852150009226</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.9621132705337101</v>
+        <v>0.013110620768248786</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.2996151932743892</v>
+        <v>0.10230202919673495</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.45884482450550107</v>
+        <v>0.010191790613594</v>
       </c>
       <c r="M96" t="n" s="25">
         <v>1.0</v>
@@ -3912,28 +3912,28 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.5713637900265816</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9632611255839563</v>
+        <v>0.8084717228962365</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9999456431867668</v>
+        <v>0.7837968248474071</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.730280550262652</v>
+        <v>0.5983794365282191</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.9830979778688893</v>
+        <v>0.8427289352586043</v>
       </c>
       <c r="M97" t="n" s="25">
         <v>1.0</v>
@@ -3947,28 +3947,28 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865343772364235</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8806111334890825</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.967368241272414</v>
+        <v>0.9977853940577058</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.8913052019453768</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.8858560976633274</v>
+        <v>0.9935817907381976</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.05604848253205297</v>
+        <v>0.9999995994080632</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.2770458941169445</v>
+        <v>0.5374474095005495</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>0.009549297590820441</v>
+        <v>0.9896157518784637</v>
       </c>
       <c r="M98" t="n" s="25">
         <v>2.026128026428362E-7</v>
@@ -3982,28 +3982,28 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9964492380804733</v>
+        <v>0.9305906125028776</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.7080395796950708</v>
+        <v>0.5954714599946783</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9147936038396232</v>
+        <v>0.5784018724647794</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.9859831398127968</v>
+        <v>0.04086270486755594</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.6262830631425</v>
+        <v>0.39389274300426574</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.8202402619886521</v>
+        <v>0.13133054687223894</v>
       </c>
       <c r="M99" t="n" s="25">
         <v>1.0</v>
@@ -4017,28 +4017,28 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865754012360804</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.3124698260290489</v>
+        <v>0.4554472174712747</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.025589921904829005</v>
+        <v>0.09514282594721736</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.2486506843594088</v>
+        <v>0.3595277129606481</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.008628245105538241</v>
+        <v>0.07845579114156313</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>6.862493166510637E-8</v>
+        <v>0.003102538866508156</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.055839121576074686</v>
+        <v>0.1244878312089343</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>1.2882429442401058E-6</v>
+        <v>0.024639696392844055</v>
       </c>
       <c r="M100" t="n" s="25">
         <v>7.94884657593656E-15</v>
@@ -4052,28 +4052,28 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9350307038876907</v>
+        <v>0.9958826272646111</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.8696265868566557</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9995792417649931</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999413078710491</v>
+        <v>1.0</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.9875322251890823</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9976471874206724</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="M101" t="n" s="25">
         <v>0.7611576832698437</v>
@@ -4087,28 +4087,28 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.3740580111587647</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>2.2307860988812986E-4</v>
+        <v>0.9999898471590922</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>0.003316820349257813</v>
+        <v>0.9935480734402148</v>
       </c>
       <c r="M102" t="n" s="25">
         <v>1.0283808101684813E-10</v>
@@ -4122,28 +4122,28 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.2164555469170474</v>
+        <v>0.4505615407156817</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.7278166630352281</v>
+        <v>0.8273994965544357</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.9918181585392045</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>3.684779740665009E-5</v>
+        <v>0.7847042707682307</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7055779669554738</v>
+        <v>0.801274194900594</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>3.66199912726583E-4</v>
+        <v>0.004425755940158111</v>
       </c>
       <c r="M103" t="n" s="25">
         <v>1.05412390885188E-12</v>
@@ -4157,28 +4157,28 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.3740580111587647</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>8.924338892993852E-5</v>
+        <v>0.9999746182842753</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>3.875761302158121E-4</v>
+        <v>0.0035602603280239903</v>
       </c>
       <c r="M104" t="n" s="25">
         <v>5.391716325540626E-12</v>
@@ -4192,28 +4192,28 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865589850016993</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8806749276830453</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9163710377794538</v>
+        <v>0.9940301406085924</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7760576349730679</v>
+        <v>0.8749818823560378</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.7434409923258868</v>
+        <v>0.9784566258522752</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>0.00517098780246016</v>
+        <v>0.9999982236905307</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.20959577891066525</v>
+        <v>0.33139780158968224</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>3.5759358780596044E-4</v>
+        <v>0.003888854390424293</v>
       </c>
       <c r="M105" t="n" s="25">
         <v>7.659949642799314E-10</v>
@@ -4227,28 +4227,28 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>1.2938718099686382E-5</v>
+        <v>0.5011337336035527</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.8900035502604436</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>8.312729746530416E-4</v>
+        <v>0.9746823368703921</v>
       </c>
       <c r="M106" t="n" s="25">
         <v>2.1279757083723755E-12</v>
@@ -4262,28 +4262,28 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.526162187897677</v>
+        <v>0.668589658182314</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.4107558758220543</v>
+        <v>0.6464935344589677</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.5986676750808387</v>
+        <v>0.7501014579610942</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9164128048862324</v>
+        <v>0.9955283032547396</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.0027458617510405874</v>
+        <v>0.9969839238057334</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.765687999653126</v>
+        <v>0.9561054333775783</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.038239273397323074</v>
+        <v>0.9999999536300902</v>
       </c>
       <c r="M107" t="n" s="25">
         <v>6.277538900142601E-9</v>
@@ -4297,28 +4297,28 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5259758691703835</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.648310946232556</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9466985855506851</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.6334594372883818</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9174009863440494</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9997242301185891</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8807163509401439</v>
+        <v>0.7142696379526373</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9993663003027099</v>
+        <v>0.965483300420299</v>
       </c>
       <c r="M108" t="n" s="25">
         <v>1.0</v>
@@ -4332,28 +4332,28 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.5678700491476644</v>
+        <v>0.7198373277495252</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.007111526433729501</v>
+        <v>0.019821282359686998</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.37275240245142616</v>
+        <v>0.47392880299012363</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.010355447082307907</v>
+        <v>0.07460093144520696</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>2.933490374059399E-9</v>
+        <v>1.3359659100109167E-4</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.20043467298168202</v>
+        <v>0.26375925349796164</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>3.506664450220385E-7</v>
+        <v>2.013764620147443E-6</v>
       </c>
       <c r="M109" t="n" s="25">
         <v>6.457861052142447E-17</v>
@@ -4367,28 +4367,28 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.45415435285930633</v>
+        <v>0.8767354681697564</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.7278166630352281</v>
+        <v>0.8273994965544357</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.9918181585392045</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.11859840773029866</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7055779669554738</v>
+        <v>0.801274194900594</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>0.009217960917891498</v>
+        <v>0.10144652383340745</v>
       </c>
       <c r="M110" t="n" s="25">
         <v>2.0302437673821108E-8</v>
@@ -4402,28 +4402,28 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5865815596063473</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.8807334289340831</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.22300768534613316</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.8034854958245201</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.9674246001808295</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>0.28664068277992705</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.7712623662946257</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>8.924480926603372E-4</v>
       </c>
       <c r="M111" t="n" s="25">
         <v>1.11568022785359E-13</v>
